--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD230808066P001</t>
+          <t>GSD230925031P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230808067P001</t>
+          <t>GSD230925032P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230808068P001</t>
+          <t>GSD230925033P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,7 +442,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230808069P001</t>
+          <t>GSD230925034P001</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230808070P001</t>
+          <t>GSD230925035P001</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD230925031P001</t>
+          <t>GSD230926086P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925032P001</t>
+          <t>GSD230926087P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925033P001</t>
+          <t>GSD230926088P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,7 +442,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925034P001</t>
+          <t>GSD230926089P001</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925035P001</t>
+          <t>GSD230926090P001</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD230926086P001</t>
+          <t>GSD240109033P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230926087P001</t>
+          <t>GSD240109034P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230926088P001</t>
+          <t>GSD240109035P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,21 +442,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230926089P001</t>
+          <t>GSD240109036P001</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD230926090P001</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD240109033P001</t>
+          <t>GSD240116035P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240109034P001</t>
+          <t>GSD240116036P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240109035P001</t>
+          <t>GSD240116037P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,11 +442,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240109036P001</t>
+          <t>GSD240116038P001</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240116039P001</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD240116035P001</t>
+          <t>GSD240116200P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116036P001</t>
+          <t>GSD240116201P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116037P001</t>
+          <t>GSD240116202P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,7 +442,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116038P001</t>
+          <t>GSD240116203P001</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116039P001</t>
+          <t>GSD240116204P001</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD240116200P001</t>
+          <t>GSD240130079P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116201P001</t>
+          <t>GSD240130080P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116202P001</t>
+          <t>GSD240130081P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,7 +442,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116203P001</t>
+          <t>GSD240130082P001</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116204P001</t>
+          <t>GSD240130083P001</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
+++ b/data/import_excel/df-mpcr结果表导入产物浓度.xlsx
@@ -412,7 +412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD240130079P001</t>
+          <t>GSD240219061P001</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -422,7 +422,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240130080P001</t>
+          <t>GSD240219062P001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240130081P001</t>
+          <t>GSD240219063P001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -442,7 +442,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240130082P001</t>
+          <t>GSD240219064P001</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240130083P001</t>
+          <t>GSD240219065P001</t>
         </is>
       </c>
       <c r="B5" t="n">
